--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1890.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1890.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275920306219437</v>
+        <v>1.343283414840698</v>
       </c>
       <c r="B1">
-        <v>2.913463454423014</v>
+        <v>1.943539261817932</v>
       </c>
       <c r="C1">
-        <v>4.100132526652532</v>
+        <v>2.894254922866821</v>
       </c>
       <c r="D1">
-        <v>2.430529506268167</v>
+        <v>3.814670324325562</v>
       </c>
       <c r="E1">
-        <v>0.8979316265966244</v>
+        <v>1.024856805801392</v>
       </c>
     </row>
   </sheetData>
